--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2798346666666667</v>
+        <v>0.04332866666666666</v>
       </c>
       <c r="H2">
-        <v>0.839504</v>
+        <v>0.129986</v>
       </c>
       <c r="I2">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="J2">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N2">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O2">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P2">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q2">
-        <v>0.4147479032124445</v>
+        <v>0.01213065459222222</v>
       </c>
       <c r="R2">
-        <v>3.732731128912</v>
+        <v>0.10917589133</v>
       </c>
       <c r="S2">
-        <v>0.06478605408316261</v>
+        <v>0.006611270862019635</v>
       </c>
       <c r="T2">
-        <v>0.06478605408316263</v>
+        <v>0.006611270862019637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2798346666666667</v>
+        <v>0.04332866666666666</v>
       </c>
       <c r="H3">
-        <v>0.839504</v>
+        <v>0.129986</v>
       </c>
       <c r="I3">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="J3">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.097371</v>
       </c>
       <c r="O3">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P3">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q3">
-        <v>0.6620301493315556</v>
+        <v>0.1025065407562222</v>
       </c>
       <c r="R3">
-        <v>5.958271343984</v>
+        <v>0.922558866806</v>
       </c>
       <c r="S3">
-        <v>0.1034129907036778</v>
+        <v>0.05586660644863784</v>
       </c>
       <c r="T3">
-        <v>0.1034129907036778</v>
+        <v>0.05586660644863785</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2798346666666667</v>
+        <v>0.04332866666666666</v>
       </c>
       <c r="H4">
-        <v>0.839504</v>
+        <v>0.129986</v>
       </c>
       <c r="I4">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="J4">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N4">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O4">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P4">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q4">
-        <v>1.881841214387556</v>
+        <v>0.29754185358</v>
       </c>
       <c r="R4">
-        <v>16.936570929488</v>
+        <v>2.67787668222</v>
       </c>
       <c r="S4">
-        <v>0.2939546306248295</v>
+        <v>0.1621618826791116</v>
       </c>
       <c r="T4">
-        <v>0.2939546306248294</v>
+        <v>0.1621618826791117</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.344612</v>
       </c>
       <c r="I5">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469368</v>
       </c>
       <c r="J5">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469369</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N5">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O5">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P5">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q5">
-        <v>0.1702518444484445</v>
+        <v>0.03216014909555556</v>
       </c>
       <c r="R5">
-        <v>1.532266600036</v>
+        <v>0.28944134186</v>
       </c>
       <c r="S5">
-        <v>0.02659433626249171</v>
+        <v>0.01752745122014918</v>
       </c>
       <c r="T5">
-        <v>0.02659433626249171</v>
+        <v>0.01752745122014918</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.344612</v>
       </c>
       <c r="I6">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469368</v>
       </c>
       <c r="J6">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469369</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.097371</v>
       </c>
       <c r="O6">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P6">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q6">
         <v>0.2717599127835556</v>
@@ -818,10 +818,10 @@
         <v>2.445839215052</v>
       </c>
       <c r="S6">
-        <v>0.0424504916621908</v>
+        <v>0.1481105886901511</v>
       </c>
       <c r="T6">
-        <v>0.04245049166219079</v>
+        <v>0.1481105886901511</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.344612</v>
       </c>
       <c r="I7">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469368</v>
       </c>
       <c r="J7">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469369</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N7">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O7">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P7">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q7">
-        <v>0.7724859733515558</v>
+        <v>0.78882720636</v>
       </c>
       <c r="R7">
-        <v>6.952373760164002</v>
+        <v>7.099444857240001</v>
       </c>
       <c r="S7">
-        <v>0.1206668380006334</v>
+        <v>0.4299149963366365</v>
       </c>
       <c r="T7">
-        <v>0.1206668380006334</v>
+        <v>0.4299149963366365</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.210796</v>
+        <v>0.03468133333333333</v>
       </c>
       <c r="H8">
-        <v>0.6323880000000001</v>
+        <v>0.104044</v>
       </c>
       <c r="I8">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="J8">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.482117666666667</v>
+        <v>0.2799683333333333</v>
       </c>
       <c r="N8">
-        <v>4.446353</v>
+        <v>0.839905</v>
       </c>
       <c r="O8">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="P8">
-        <v>0.1401829251394648</v>
+        <v>0.0294305463214559</v>
       </c>
       <c r="Q8">
-        <v>0.3124244756626667</v>
+        <v>0.009709675091111111</v>
       </c>
       <c r="R8">
-        <v>2.811820280964</v>
+        <v>0.08738707581999999</v>
       </c>
       <c r="S8">
-        <v>0.04880253479381044</v>
+        <v>0.005291824239287085</v>
       </c>
       <c r="T8">
-        <v>0.04880253479381045</v>
+        <v>0.005291824239287086</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.210796</v>
+        <v>0.03468133333333333</v>
       </c>
       <c r="H9">
-        <v>0.6323880000000001</v>
+        <v>0.104044</v>
       </c>
       <c r="I9">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="J9">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>7.097371</v>
       </c>
       <c r="O9">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732164</v>
       </c>
       <c r="P9">
-        <v>0.2237632116883226</v>
+        <v>0.2486942046732163</v>
       </c>
       <c r="Q9">
-        <v>0.4986991391053334</v>
+        <v>0.08204876314711111</v>
       </c>
       <c r="R9">
-        <v>4.488292251948001</v>
+        <v>0.738438868324</v>
       </c>
       <c r="S9">
-        <v>0.07789972932245398</v>
+        <v>0.04471700953442737</v>
       </c>
       <c r="T9">
-        <v>0.07789972932245398</v>
+        <v>0.04471700953442737</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.210796</v>
+        <v>0.03468133333333333</v>
       </c>
       <c r="H10">
-        <v>0.6323880000000001</v>
+        <v>0.104044</v>
       </c>
       <c r="I10">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="J10">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.724832333333334</v>
+        <v>6.86709</v>
       </c>
       <c r="N10">
-        <v>20.174497</v>
+        <v>20.60127</v>
       </c>
       <c r="O10">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="P10">
-        <v>0.6360538631722126</v>
+        <v>0.7218752490053277</v>
       </c>
       <c r="Q10">
-        <v>1.417567756537334</v>
+        <v>0.23815983732</v>
       </c>
       <c r="R10">
-        <v>12.758109808836</v>
+        <v>2.14343853588</v>
       </c>
       <c r="S10">
-        <v>0.2214323945467498</v>
+        <v>0.1297983699895796</v>
       </c>
       <c r="T10">
-        <v>0.2214323945467498</v>
+        <v>0.1297983699895796</v>
       </c>
     </row>
   </sheetData>
